--- a/back/TRsystem/TRsystem/upload/휴가배정엑셀업로드.xlsx
+++ b/back/TRsystem/TRsystem/upload/휴가배정엑셀업로드.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\박지환\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633A80F8-3493-427E-8118-9AE631FBE56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5EB463-95D3-4550-AD80-4FB60CE24DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99644664-5FCF-431A-8AA6-FA382B804F89}"/>
   </bookViews>
@@ -21,21 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>사번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +94,10 @@
   </si>
   <si>
     <t>VK0002</t>
+  </si>
+  <si>
+    <t>VK1580</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -525,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CAE75A0-8EA8-4888-9AFB-9B95CFF16E77}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -650,6 +645,32 @@
       </c>
       <c r="H4" s="2">
         <v>20271001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2">
+        <v>20250401</v>
+      </c>
+      <c r="H5" s="2">
+        <v>20260331</v>
       </c>
     </row>
   </sheetData>
